--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>940469.2726580214</v>
+        <v>938033.6357343143</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673424</v>
+        <v>603248.493767344</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>24.6214982250919</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>65.47558212601622</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -874,13 +874,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>162.661938484506</v>
+        <v>120.6353666620237</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>407.8895948559967</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>86.44062901106274</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,10 +1108,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>116.3303919060232</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>32.85881373760815</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>31.44204639769819</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>270.5139490778481</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>97.28002421814095</v>
+        <v>222.1526784153806</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,10 +1370,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>276.0830593329716</v>
       </c>
       <c r="D11" t="n">
-        <v>18.2146998714299</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806771</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203237998</v>
+        <v>22.60777203238047</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114085</v>
+        <v>97.97552699114112</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458122</v>
+        <v>87.05432226458127</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035096</v>
+        <v>9.753166794035309</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>124.100452100949</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034029</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146349</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>56.34967559448276</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,13 +1607,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.981365633718</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>331.6388439349703</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,10 +1768,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>86.2717922279345</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1819,7 +1819,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>150.5685325572721</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.87604574171</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187878</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986325</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G19" t="n">
-        <v>55.52079624059967</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560521</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106825023</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>14.73874327217573</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2485,10 +2485,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>55.52079624060123</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.91555826189153</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890399</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740354</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>41.02686156550228</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>101.6969570046973</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>232.1660347331641</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784684</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3193,13 +3193,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>176.1811323375769</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890393</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3430,16 +3430,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>119.3168020713726</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206823</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3664,13 +3664,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>8.616048582069274</v>
+        <v>0.8253826161910007</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560523</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>99.9742741983339</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,10 +3958,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365953</v>
       </c>
       <c r="X43" t="n">
-        <v>88.86833396296423</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4138,13 +4138,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>146.5235739004482</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1171.901920325867</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C2" t="n">
-        <v>1171.901920325867</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D2" t="n">
-        <v>1171.901920325867</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>786.1136677276232</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296686</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3259.468869966729</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>3005.938393240566</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V2" t="n">
-        <v>2674.875505896995</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W2" t="n">
-        <v>2322.106850626881</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X2" t="n">
-        <v>1948.641092365801</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y2" t="n">
-        <v>1558.501760389989</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>941.4970410294717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415546</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1326.59460854119</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1326.59460854119</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>1162.289620173002</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y4" t="n">
-        <v>941.4970410294717</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1540.864437266279</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="C5" t="n">
-        <v>1171.901920325867</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>1210.836060705129</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>825.047808106885</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>818.1023073576815</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
@@ -4574,10 +4574,10 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4601,16 +4601,16 @@
         <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539436</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269322</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008242</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y5" t="n">
-        <v>1927.464277330401</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>697.2814163499066</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C7" t="n">
-        <v>528.3452334219998</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219998</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4723,16 +4723,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1396.336602115124</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1396.336602115124</v>
+        <v>1101.718003420938</v>
       </c>
       <c r="W7" t="n">
-        <v>1106.919432078164</v>
+        <v>812.300833383977</v>
       </c>
       <c r="X7" t="n">
-        <v>878.9298811801464</v>
+        <v>584.3112824859596</v>
       </c>
       <c r="Y7" t="n">
-        <v>878.9298811801464</v>
+        <v>363.5187033424295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1561.900772669911</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1192.938255729499</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>834.6725571227489</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>448.8843045245047</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
         <v>417.1246616985469</v>
@@ -4799,31 +4799,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645723</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.900772669911</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1638.191681214136</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1348.774511177175</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1992.551659540972</v>
+        <v>1535.258832689346</v>
       </c>
       <c r="C11" t="n">
-        <v>1623.58914260056</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.190455861743</v>
+        <v>898.1213569785843</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263498</v>
+        <v>512.3331043803402</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738906</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035376</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907324</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469202</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386847</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420342</v>
+        <v>704.5155104420319</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301228</v>
+        <v>1232.419981301225</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878114</v>
+        <v>1851.484858878108</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765431</v>
+        <v>2485.180661765423</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687108</v>
+        <v>3070.226377687099</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856291</v>
+        <v>3535.04835985628</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.93756388225</v>
+        <v>3835.937563882237</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234601</v>
+        <v>3925.553311234587</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.58813245567</v>
+        <v>3826.588132455657</v>
       </c>
       <c r="T11" t="n">
-        <v>3826.58813245567</v>
+        <v>3622.786021971437</v>
       </c>
       <c r="U11" t="n">
-        <v>3826.58813245567</v>
+        <v>3369.295305604044</v>
       </c>
       <c r="V11" t="n">
-        <v>3495.5252451121</v>
+        <v>3038.232418260473</v>
       </c>
       <c r="W11" t="n">
-        <v>3142.756589841985</v>
+        <v>2685.463762990359</v>
       </c>
       <c r="X11" t="n">
-        <v>2769.290831580905</v>
+        <v>2311.998004729279</v>
       </c>
       <c r="Y11" t="n">
-        <v>2379.151499605094</v>
+        <v>1921.858672753468</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.3627498550305</v>
+        <v>88.36274985503044</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469202</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469202</v>
+        <v>196.8120623792125</v>
       </c>
       <c r="K12" t="n">
-        <v>358.8611360831301</v>
+        <v>477.1621322376495</v>
       </c>
       <c r="L12" t="n">
-        <v>782.1489435104406</v>
+        <v>900.4499396649587</v>
       </c>
       <c r="M12" t="n">
-        <v>1295.462717754331</v>
+        <v>1413.763713908847</v>
       </c>
       <c r="N12" t="n">
-        <v>1836.771025105399</v>
+        <v>1955.072021259914</v>
       </c>
       <c r="O12" t="n">
-        <v>2309.742577971148</v>
+        <v>1991.670362601624</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441778</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>629.1935425196083</v>
+        <v>203.8650582458525</v>
       </c>
       <c r="C13" t="n">
-        <v>460.2573595917014</v>
+        <v>203.8650582458524</v>
       </c>
       <c r="D13" t="n">
-        <v>460.2573595917014</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="E13" t="n">
-        <v>460.2573595917014</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="F13" t="n">
-        <v>313.3674120937911</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="G13" t="n">
-        <v>313.3674120937911</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="H13" t="n">
-        <v>169.1323565987731</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469202</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600404</v>
+        <v>139.0818334600398</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457712</v>
+        <v>368.4550473457699</v>
       </c>
       <c r="L13" t="n">
-        <v>717.500225288893</v>
+        <v>717.5002252888909</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779223</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542996</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715851</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082524</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551108</v>
+        <v>2155.909043551102</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551108</v>
+        <v>2076.10273901427</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906991</v>
+        <v>1888.302075370153</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457037</v>
+        <v>1667.488017920199</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.203615897325</v>
+        <v>1378.397311360487</v>
       </c>
       <c r="V13" t="n">
-        <v>1203.519127691438</v>
+        <v>1123.7128231546</v>
       </c>
       <c r="W13" t="n">
-        <v>914.1019576544775</v>
+        <v>834.2956531176396</v>
       </c>
       <c r="X13" t="n">
-        <v>686.1124067564601</v>
+        <v>606.3061022196223</v>
       </c>
       <c r="Y13" t="n">
-        <v>629.1935425196083</v>
+        <v>385.5135230760922</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555044</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614633</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007882</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
         <v>1204.208000760437</v>
@@ -5270,19 +5270,19 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
         <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128765</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
         <v>2182.462224957689</v>
@@ -5297,31 +5297,31 @@
         <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070876</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750194</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469743</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126172</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856058</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594978</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619166</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608053</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608053</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L15" t="n">
-        <v>372.2013186925061</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>964.2196729446337</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
-        <v>1586.31563634397</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O15" t="n">
-        <v>2133.192111344164</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>698.9051219233172</v>
+        <v>494.0589900220733</v>
       </c>
       <c r="C16" t="n">
-        <v>698.9051219233172</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="D16" t="n">
-        <v>548.7884825109816</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="E16" t="n">
-        <v>548.7884825109816</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130713</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876502</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213792</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.52680186348</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>1873.437375037952</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1618.752886832065</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1329.335716795104</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1101.346165897087</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y16" t="n">
-        <v>880.5535867535569</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,7 +5586,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
         <v>95.58405025273905</v>
@@ -5598,22 +5598,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969303</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.754138832765</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048533</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925175</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101244</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F19" t="n">
-        <v>149.8982754122141</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797745</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630047</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,10 +5747,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5759,7 +5759,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5783,16 +5783,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,22 +5835,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>726.9555321712451</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C22" t="n">
-        <v>558.0193492433381</v>
+        <v>559.0424953278209</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>408.9258559154852</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5911,19 +5911,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1129.396576145015</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y22" t="n">
-        <v>908.6039970014848</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="23">
@@ -5972,25 +5972,25 @@
         <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075801</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -5999,22 +5999,22 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474785</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L24" t="n">
-        <v>634.5603720565526</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327618</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048548</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>444.701316492519</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101259</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F25" t="n">
-        <v>149.8982754122155</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063198</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806532</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630015</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133953</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6397,37 +6397,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="29">
@@ -6452,52 +6452,52 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852888</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1965.532750177311</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.0191461778174</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778174</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654816</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830886</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851784</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797745</v>
@@ -6631,40 +6631,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1962.551399292452</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1707.866911086565</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1418.449741049605</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1190.460190151587</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y31" t="n">
-        <v>969.6676110080572</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6731,13 +6731,13 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591808</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1522.21291626627</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6859,7 +6859,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797745</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868275</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662388</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625427</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="35">
@@ -7014,22 +7014,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7099,46 +7099,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970973</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035995</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7166,28 +7166,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171296</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892227</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D40" t="n">
-        <v>564.5188827892227</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E40" t="n">
-        <v>416.6057892068297</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="F40" t="n">
-        <v>269.7158417089195</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="G40" t="n">
-        <v>102.5197424237994</v>
+        <v>94.6503828623062</v>
       </c>
       <c r="H40" t="n">
-        <v>102.5197424237994</v>
+        <v>94.6503828623062</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038335</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831764</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.896109690899</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473694</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="41">
@@ -7409,10 +7409,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,16 +7442,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.207143961552</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400669</v>
       </c>
       <c r="C43" t="n">
-        <v>847.644273983533</v>
+        <v>344.91741781216</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998243</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998243</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X43" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138368</v>
       </c>
       <c r="Y43" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703066</v>
       </c>
     </row>
     <row r="44">
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
         <v>261.0127623330919</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>89.18983243803598</v>
       </c>
       <c r="D11" t="n">
-        <v>336.4683417492531</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>24.51502091726337</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034045</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146325</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>162.234977757612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613728951</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>50.2915261372915</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>60.16217041863467</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>135.6169189911479</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G19" t="n">
-        <v>110.0033420516692</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>145.6085800303768</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462287</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>210.9709121168614</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>110.0033420516676</v>
+        <v>165.5241382922659</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823013</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459244</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.9994244361423</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>65.54986409393052</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856253</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>54.01843965608003</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>110.0033420516673</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>99.26785128072218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462259</v>
       </c>
       <c r="I40" t="n">
-        <v>72.64978773649626</v>
+        <v>80.44045370237453</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>45.44677382459734</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>136.8413214260729</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,13 +26026,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.36835372228738</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>139.9994244361428</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>897886.0540219179</v>
+        <v>897886.0540219164</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>976634.4931959083</v>
+        <v>976634.4931959084</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>981994.6868582785</v>
+        <v>981994.6868582786</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>981994.6868582783</v>
+        <v>981994.6868582786</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>981994.6868582785</v>
+        <v>981994.6868582786</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>981994.6868582786</v>
+        <v>981994.6868582785</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>981994.6868582786</v>
+        <v>981994.6868582785</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>981994.6868582785</v>
+        <v>981994.6868582786</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>981994.6868582786</v>
+        <v>981994.6868582783</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>981994.6868582786</v>
+        <v>981994.6868582785</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253558</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
         <v>451572.9734253559</v>
@@ -26320,16 +26320,16 @@
         <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>405380.8397795044</v>
+        <v>405380.8397795036</v>
       </c>
       <c r="F2" t="n">
-        <v>441473.874400917</v>
+        <v>441473.8744009171</v>
       </c>
       <c r="G2" t="n">
-        <v>443930.6298295033</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="H2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="I2" t="n">
         <v>443930.6298295035</v>
@@ -26338,19 +26338,19 @@
         <v>443930.6298295034</v>
       </c>
       <c r="K2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="L2" t="n">
-        <v>443930.6298295033</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="M2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="N2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="O2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="P2" t="n">
         <v>443930.6298295034</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,19 +26372,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185181</v>
+        <v>143114.1392185145</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051358</v>
+        <v>166521.3471051394</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557922</v>
+        <v>11167.2362355788</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972774</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115392</v>
+        <v>37377.32855115285</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848853</v>
+        <v>43782.40655848942</v>
       </c>
       <c r="O3" t="n">
         <v>3023.297977224693</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820635</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="E4" t="n">
         <v>14117.63111954901</v>
@@ -26454,7 +26454,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.75207685506</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214729</v>
+        <v>86093.72216214702</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1078509.499711836</v>
       </c>
       <c r="C6" t="n">
-        <v>250235.2460157562</v>
+        <v>250235.2460157563</v>
       </c>
       <c r="D6" t="n">
         <v>250235.2460157562</v>
       </c>
       <c r="E6" t="n">
-        <v>162055.34727929</v>
+        <v>161845.3830354483</v>
       </c>
       <c r="F6" t="n">
-        <v>160600.1793263131</v>
+        <v>160554.2743307439</v>
       </c>
       <c r="G6" t="n">
-        <v>317424.1116931619</v>
+        <v>317389.3737677268</v>
       </c>
       <c r="H6" t="n">
-        <v>328591.3479287414</v>
+        <v>328556.6100033056</v>
       </c>
       <c r="I6" t="n">
-        <v>328591.3479287414</v>
+        <v>328556.6100033054</v>
       </c>
       <c r="J6" t="n">
-        <v>111060.1455314638</v>
+        <v>111025.4076060281</v>
       </c>
       <c r="K6" t="n">
-        <v>328591.3479287413</v>
+        <v>328556.6100033055</v>
       </c>
       <c r="L6" t="n">
-        <v>328591.3479287411</v>
+        <v>328556.6100033055</v>
       </c>
       <c r="M6" t="n">
-        <v>291214.0193775874</v>
+        <v>291179.2814521527</v>
       </c>
       <c r="N6" t="n">
-        <v>284808.9413702527</v>
+        <v>284774.2034448161</v>
       </c>
       <c r="O6" t="n">
-        <v>325568.0499515167</v>
+        <v>325533.3120260808</v>
       </c>
       <c r="P6" t="n">
-        <v>328591.3479287412</v>
+        <v>328556.6100033055</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494558</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,34 +26787,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086502</v>
+        <v>981.3883278086467</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26966,19 +26966,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012596</v>
+        <v>122.3935669012565</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218279</v>
+        <v>145.8707812218311</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063575</v>
+        <v>149.9868724063539</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173563</v>
+        <v>178.7569625173602</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063575</v>
+        <v>149.9868724063539</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173563</v>
+        <v>178.75696251736</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364188</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063575</v>
+        <v>149.9868724063539</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173563</v>
+        <v>178.7569625173602</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>358.1123434383887</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>138.4423880136039</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>63.04771690453117</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>3.032130797456773</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>299.7973096449908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,10 +27828,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>169.8814462995897</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>219.2788295862198</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>375.4339993440133</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>57.23830939228679</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>128.4296311708962</v>
+        <v>3.556976973656589</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.413944338497486e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.406477033185611e-12</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.452506456820145e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28959,7 +28959,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>8.029132914089133e-13</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -28974,7 +28974,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-2.534374725622429e-12</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-2.120263810372943e-13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>8.140891645894615e-13</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29208,7 +29208,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.98632585327141e-12</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -29259,7 +29259,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>-4.169573730573304e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>-2.120263810372943e-13</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29688,7 +29688,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2.98632585327141e-12</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>6.427019720443117e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>5.998551739080243e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
     </row>
     <row r="42">
@@ -30678,7 +30678,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>-2.053100445934254e-12</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485656</v>
+        <v>4.873046301485644</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508998</v>
+        <v>49.90608543508986</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380259</v>
+        <v>187.8681175380254</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307185</v>
+        <v>413.5937135307175</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726065</v>
+        <v>619.869763472605</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216983</v>
+        <v>769.0032542216964</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857437</v>
+        <v>855.6642913857416</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898399</v>
+        <v>869.5098341898378</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294419</v>
+        <v>821.0534800294399</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615146</v>
+        <v>700.7501494615129</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895595</v>
+        <v>526.2341787895582</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356986</v>
+        <v>306.1064947356978</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951045</v>
+        <v>111.0445425951042</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475347</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188524</v>
+        <v>0.3898437041188514</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969426</v>
+        <v>2.60730963196942</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191525</v>
+        <v>25.18112197191519</v>
       </c>
       <c r="I12" t="n">
-        <v>89.7692132059649</v>
+        <v>89.76921320596469</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783038</v>
       </c>
       <c r="K12" t="n">
-        <v>421.023327720256</v>
+        <v>421.0233277202549</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256424</v>
+        <v>566.117821625641</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845339</v>
+        <v>660.6327957845323</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147149</v>
+        <v>678.1177801147132</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431818</v>
+        <v>179.5642660017277</v>
       </c>
       <c r="P12" t="n">
-        <v>192.7991225800882</v>
+        <v>497.8817840205465</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.820787407185</v>
+        <v>332.8207874071842</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697593</v>
+        <v>48.42963285697581</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780659</v>
+        <v>10.50928750780656</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190413</v>
+        <v>0.1715335284190408</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236088</v>
+        <v>2.185880810236082</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737177</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691799</v>
+        <v>65.73539745691784</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836914</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619745</v>
+        <v>253.9596068619738</v>
       </c>
       <c r="L13" t="n">
-        <v>324.980861550918</v>
+        <v>324.9808615509172</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263714</v>
+        <v>342.6467528263705</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973099</v>
+        <v>334.499378897309</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050064</v>
+        <v>308.9643167050056</v>
       </c>
       <c r="P13" t="n">
-        <v>264.37234817619</v>
+        <v>264.3723481761893</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916782</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570623</v>
+        <v>98.28514988570599</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929617</v>
+        <v>38.09394102929608</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826917</v>
+        <v>9.339672552826894</v>
       </c>
       <c r="U13" t="n">
-        <v>0.119229862376514</v>
+        <v>0.1192298623765137</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,43 +32069,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>420.7661933823243</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>427.3161054158215</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>277.4567226539307</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>263.7590256391496</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,10 +32555,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>240.4469701760392</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>194.5189324111251</v>
+        <v>209.9499448422518</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>196.3041720118997</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>454.8099857531869</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>483.3274636075166</v>
+        <v>303.4297552732306</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,16 +33734,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>244.0266243181833</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,7 +33752,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>695.222208616788</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>535.8585467435948</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
@@ -34451,13 +34451,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>422.1299181110993</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040322</v>
+        <v>232.5478090040313</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276259</v>
+        <v>399.7799124276244</v>
       </c>
       <c r="L11" t="n">
-        <v>533.236839251711</v>
+        <v>533.2368392517092</v>
       </c>
       <c r="M11" t="n">
-        <v>625.318058158471</v>
+        <v>625.3180581584689</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932489</v>
+        <v>640.0967705932469</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077551</v>
+        <v>590.9552686077532</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062451</v>
+        <v>469.5171537062434</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151099</v>
+        <v>303.9284889151087</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156644</v>
+        <v>90.5209569215657</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116372</v>
       </c>
       <c r="K12" t="n">
-        <v>283.181888745897</v>
+        <v>283.1818887458959</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457682</v>
+        <v>427.5634418457668</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625155</v>
+        <v>518.4987618625139</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313817</v>
+        <v>546.77606803138</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987373</v>
+        <v>36.9680215572833</v>
       </c>
       <c r="P12" t="n">
-        <v>58.82471516575799</v>
+        <v>363.9073766062163</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211635</v>
+        <v>192.8390133211627</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936553</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701861</v>
+        <v>61.18259316701821</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360916</v>
+        <v>231.690115036091</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112341</v>
+        <v>352.5708868112333</v>
       </c>
       <c r="M13" t="n">
-        <v>382.230629788212</v>
+        <v>382.2306297882111</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765385</v>
+        <v>378.6315512765376</v>
       </c>
       <c r="O13" t="n">
-        <v>333.549444619046</v>
+        <v>333.5494446190453</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410835</v>
+        <v>261.6509074410828</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998383</v>
+        <v>96.87566713998338</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>282.2118136024501</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>295.9743933324882</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>138.9023428740565</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>132.4173135558163</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36203,10 +36203,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>55.9645526312509</v>
+        <v>71.39556506237764</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>57.74979223202556</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>320.8355783388566</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>340.7312191630721</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37382,16 +37382,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,7 +37400,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>563.8804965334547</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096345</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
         <v>394.3420143191314</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>393.2623022991504</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,13 +38099,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>283.5755383312251</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
